--- a/build_export.xlsx
+++ b/build_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B54292F-F83C-1048-B456-F03BCD4782BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4400577-2CC4-6941-A8BE-ABF2C0D648F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="24940" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>社区名</t>
   </si>
@@ -43,7 +43,7 @@
     <t>街道</t>
   </si>
   <si>
-    <t>存在外墙安全隐患的住宅数量</t>
+    <t>2.1 存在外墙安全隐患的住宅数量</t>
   </si>
   <si>
     <t>2.1.1 墙体楼板出现肉眼清晰可见的裂缝（裂缝需深达结构基层，不是表皮抹灰开裂）</t>
@@ -58,7 +58,100 @@
     <t>2.1.4 违规加建悬挑飘窗</t>
   </si>
   <si>
-    <t>需要进行数字化改造的住宅数量</t>
+    <t>2.2 存在燃气安全隐患的住宅数量（户内燃气橡胶软管存在变硬变脆、龟裂、明显缺损、油污严重等老化破损现象或使用不合格产品）</t>
+  </si>
+  <si>
+    <t>2.3 存在楼道安全隐患的住宅数量</t>
+  </si>
+  <si>
+    <t>2.3.1 楼梯间内楼梯踏步缺损、楼梯扶手松动损坏、照明损坏缺失、安全护栏松动损坏或缺失</t>
+  </si>
+  <si>
+    <t>2.3.2 通风井道、排风烟道等堵塞，造成通风不畅、异味串味</t>
+  </si>
+  <si>
+    <t>2.3.3 消防门缺失、损坏、无法关闭</t>
+  </si>
+  <si>
+    <t>2.3.4 消火栓无日常维护、老化损坏</t>
+  </si>
+  <si>
+    <t>2.3.5 灭火器缺失、未设置灭火器保护设施</t>
+  </si>
+  <si>
+    <t>2.3.6 消防安全出口指示灯损坏或者缺失</t>
+  </si>
+  <si>
+    <t>2.3.7 违规占用消防楼梯、楼道、管道井等公共空间，用于堆放杂物</t>
+  </si>
+  <si>
+    <t>2.4存在围护安全隐患的住宅数量（栋）</t>
+  </si>
+  <si>
+    <t>2.4.1 外墙装饰材料和保温材料开裂、损坏、脱落</t>
+  </si>
+  <si>
+    <t>2.4.2 外墙悬挂设施不规范（如过大、过高）或损坏松脱的情况</t>
+  </si>
+  <si>
+    <t>2.4.3 门窗玻璃存在破损、脱落等情况</t>
+  </si>
+  <si>
+    <t>2.4.4 屋面排水不畅、漏水</t>
+  </si>
+  <si>
+    <t>2.4.5 外墙内侧或地下室渗水漏水</t>
+  </si>
+  <si>
+    <t>2.5住宅性能不达标的住宅数量</t>
+  </si>
+  <si>
+    <t>2.5.1没有独立厨房、卫生间等基本功能空间</t>
+  </si>
+  <si>
+    <t>2.5.2 采光、通风等性能方面不达标</t>
+  </si>
+  <si>
+    <t>2.6存在管线管道破损的住宅数量（栋）</t>
+  </si>
+  <si>
+    <t>2.6.1 存在给水管线跑冒滴漏、排水管线老化破损、渗漏堵塞的问题</t>
+  </si>
+  <si>
+    <t>2.6.2 存在采暖季温度不达标问题</t>
+  </si>
+  <si>
+    <t>2.6.3 存在电力电信管线老化破损及裸露、私搭乱接的问题</t>
+  </si>
+  <si>
+    <t>2.7入户水质不达标的住宅数量（栋）</t>
+  </si>
+  <si>
+    <t>2.7.1入户水质不满足《生活饮用水卫生标准》</t>
+  </si>
+  <si>
+    <t>2.7.2存在居民用水水压不足问题</t>
+  </si>
+  <si>
+    <t>2.8需要进行适老化改造的住宅数量（栋）</t>
+  </si>
+  <si>
+    <t>2.8.1建成时未安装电梯的多层住宅中具备加装电梯条件，但尚未加装改造</t>
+  </si>
+  <si>
+    <t>2.8.2住宅单元出入口和通道未进行无障碍改造、地面防滑处理</t>
+  </si>
+  <si>
+    <t>2.8.3 楼梯间未沿墙加装扶手</t>
+  </si>
+  <si>
+    <t>2.8.4 纳入分散供养特困人员和建档立卡贫困人口范围的高龄、失能、残疾老年人等特殊困难老年人家庭未实施适老化改造</t>
+  </si>
+  <si>
+    <t>2.9需要进行节能改造的住宅数量(具备节能改造价值但尚未进行节能改造)</t>
+  </si>
+  <si>
+    <t>2.10 需要进行数字化改造的住宅数量</t>
   </si>
   <si>
     <t>2.10.1不具备光纤入户条件</t>
@@ -73,129 +166,6 @@
     <t>2.10.4 未安装家庭健康紧急呼叫系统，无法保障有需要的居家老年人、残疾人安装一键紧急呼叫、安全监护无感化监测等智能产品</t>
   </si>
   <si>
-    <t>其他（宁波）</t>
-  </si>
-  <si>
-    <t>存在燃气安全隐患的住宅数量（户内燃气橡胶软管存在变硬变脆、龟裂、明显缺损、油污严重等老化破损现象或使用不合格产品）</t>
-  </si>
-  <si>
-    <t>存在楼道安全隐患的住宅数量</t>
-  </si>
-  <si>
-    <t>2.3.1 楼梯间内楼梯踏步缺损、楼梯扶手松动损坏、照明损坏缺失、安全护栏松动损坏或缺失</t>
-  </si>
-  <si>
-    <t>通信管线未四网合一（宁波）</t>
-  </si>
-  <si>
-    <t>2.3.2 通风井道、排风烟道等堵塞，造成通风不畅、异味串味</t>
-  </si>
-  <si>
-    <t>2.3.3 消防门缺失、损坏、无法关闭</t>
-  </si>
-  <si>
-    <t>2.3.4 消火栓无日常维护、老化损坏</t>
-  </si>
-  <si>
-    <t>2.3.5 灭火器缺失、未设置灭火器保护设施</t>
-  </si>
-  <si>
-    <t>2.3.6 消防安全出口指示灯损坏或者缺失</t>
-  </si>
-  <si>
-    <t>2.3.7 违规占用消防楼梯、楼道、管道井等公共空间，用于堆放杂物</t>
-  </si>
-  <si>
-    <t>2.3.8楼梯安全护栏设施未安装或损坏（窗台距楼梯地面的净高低于0.9m时，应设置安全护栏设施）（宁波）</t>
-  </si>
-  <si>
-    <t>楼道墙体破损、脱落（宁波）</t>
-  </si>
-  <si>
-    <t>2.4存在围护安全隐患的住宅数量（栋）</t>
-  </si>
-  <si>
-    <t>2.4.1 外墙装饰材料和保温材料开裂、损坏、脱落</t>
-  </si>
-  <si>
-    <t>2.4.2 外墙悬挂设施不规范（如过大、过高）或损坏松脱的情况</t>
-  </si>
-  <si>
-    <t>2.4.3 门窗玻璃存在破损、脱落等情况</t>
-  </si>
-  <si>
-    <t>2.4.4 屋面排水不畅、漏水</t>
-  </si>
-  <si>
-    <t>2.4.5 外墙内侧或地下室渗水漏水</t>
-  </si>
-  <si>
-    <t>地下室渗水漏水（可询问物业获知）（宁波）</t>
-  </si>
-  <si>
-    <t>其他(宁波)</t>
-  </si>
-  <si>
-    <t>2.5住宅性能不达标的住宅数量</t>
-  </si>
-  <si>
-    <t>2.5.1没有独立厨房、卫生间等基本功能空间</t>
-  </si>
-  <si>
-    <t>2.5.2 采光、通风等性能方面不达标</t>
-  </si>
-  <si>
-    <t>没有独立卫生间（宁波）</t>
-  </si>
-  <si>
-    <t>2.6存在管线管道破损的住宅数量（栋）</t>
-  </si>
-  <si>
-    <t>2.6.1 存在给水管线跑冒滴漏、排水管线老化破损、渗漏堵塞的问题</t>
-  </si>
-  <si>
-    <t>2.6.2 存在采暖季温度不达标问题</t>
-  </si>
-  <si>
-    <t>2.6.3 存在电力电信管线老化破损及裸露、私搭乱接的问题</t>
-  </si>
-  <si>
-    <t>排水管线管道老化破损、供给不足、管道堵塞等（可询问物业获知）（宁波）</t>
-  </si>
-  <si>
-    <t>供热管线管道老化破损、供给不足、管道堵塞等（可询问物业获知）（宁波）</t>
-  </si>
-  <si>
-    <t>供电管线管道老化破损、供给不足、管道堵塞等（可询问物业获知）（宁波）</t>
-  </si>
-  <si>
-    <t>2.7入户水质不达标的住宅数量（栋）</t>
-  </si>
-  <si>
-    <t>2.7.1入户水质不满足《生活饮用水卫生标准》</t>
-  </si>
-  <si>
-    <t>2.7.2存在居民用水水压不足问题</t>
-  </si>
-  <si>
-    <t>2.8需要进行适老化改造的住宅数量（栋）</t>
-  </si>
-  <si>
-    <t>2.8.1建成时未安装电梯的多层住宅中具备加装电梯条件，但尚未加装改造</t>
-  </si>
-  <si>
-    <t>2.8.2住宅单元出入口和通道未进行无障碍改造、地面防滑处理</t>
-  </si>
-  <si>
-    <t>2.8.3 楼梯间未沿墙加装扶手</t>
-  </si>
-  <si>
-    <t>2.8.4 纳入分散供养特困人员和建档立卡贫困人口范围的高龄、失能、残疾老年人等特殊困难老年人家庭未实施适老化改造</t>
-  </si>
-  <si>
-    <t>2.9需要进行节能改造的住宅数量(具备节能改造价值但尚未进行节能改造)</t>
-  </si>
-  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -223,6 +193,99 @@
     <t>{.2.1.4}</t>
   </si>
   <si>
+    <t>{.2.2}</t>
+  </si>
+  <si>
+    <t>{.2.3}</t>
+  </si>
+  <si>
+    <t>{.2.3.1}</t>
+  </si>
+  <si>
+    <t>{.2.3.2}</t>
+  </si>
+  <si>
+    <t>{.2.3.3}</t>
+  </si>
+  <si>
+    <t>{.2.3.4}</t>
+  </si>
+  <si>
+    <t>{.2.3.5}</t>
+  </si>
+  <si>
+    <t>{.2.3.6 }</t>
+  </si>
+  <si>
+    <t>{.2.3.7}</t>
+  </si>
+  <si>
+    <t>{.2.4}</t>
+  </si>
+  <si>
+    <t>{.2.4.1}</t>
+  </si>
+  <si>
+    <t>{.2.4.2}</t>
+  </si>
+  <si>
+    <t>{.2.4.3}</t>
+  </si>
+  <si>
+    <t>{.2.4.4 }</t>
+  </si>
+  <si>
+    <t>{.2.4.5}</t>
+  </si>
+  <si>
+    <t>{.2.5}</t>
+  </si>
+  <si>
+    <t>{.2.5.1}</t>
+  </si>
+  <si>
+    <t>{.2.5.2}</t>
+  </si>
+  <si>
+    <t>{.2.6}</t>
+  </si>
+  <si>
+    <t>{.2.6.1}</t>
+  </si>
+  <si>
+    <t>{.2.6.2}</t>
+  </si>
+  <si>
+    <t>{.2.6.3 }</t>
+  </si>
+  <si>
+    <t>{.2.7}</t>
+  </si>
+  <si>
+    <t>{.2.7.1}</t>
+  </si>
+  <si>
+    <t>{.2.7.2}</t>
+  </si>
+  <si>
+    <t>{.2.8}</t>
+  </si>
+  <si>
+    <t>{.2.8.1}</t>
+  </si>
+  <si>
+    <t>{.2.8.2}</t>
+  </si>
+  <si>
+    <t>{.2.8.3}</t>
+  </si>
+  <si>
+    <t>{.2.8.4}</t>
+  </si>
+  <si>
+    <t>{.2.9}</t>
+  </si>
+  <si>
     <t>{.2.10}</t>
   </si>
   <si>
@@ -236,141 +299,6 @@
   </si>
   <si>
     <t>{.2.10.4}</t>
-  </si>
-  <si>
-    <t>{.2.10.5}</t>
-  </si>
-  <si>
-    <t>{.2.2}</t>
-  </si>
-  <si>
-    <t>{.2.3}</t>
-  </si>
-  <si>
-    <t>{.2.3.1}</t>
-  </si>
-  <si>
-    <t>{.2.3.10}</t>
-  </si>
-  <si>
-    <t>{.2.3.11}</t>
-  </si>
-  <si>
-    <t>{.2.3.2}</t>
-  </si>
-  <si>
-    <t>{.2.3.3}</t>
-  </si>
-  <si>
-    <t>{.2.3.4}</t>
-  </si>
-  <si>
-    <t>{.2.3.5}</t>
-  </si>
-  <si>
-    <t>{.2.3.6 }</t>
-  </si>
-  <si>
-    <t>{.2.3.7}</t>
-  </si>
-  <si>
-    <t>{.2.3.8}</t>
-  </si>
-  <si>
-    <t>{.2.3.9}</t>
-  </si>
-  <si>
-    <t>{.2.4}</t>
-  </si>
-  <si>
-    <t>{.2.4.1}</t>
-  </si>
-  <si>
-    <t>{.2.4.2}</t>
-  </si>
-  <si>
-    <t>{.2.4.3}</t>
-  </si>
-  <si>
-    <t>{.2.4.4 }</t>
-  </si>
-  <si>
-    <t>{.2.4.5}</t>
-  </si>
-  <si>
-    <t>{.2.4.6}</t>
-  </si>
-  <si>
-    <t>{.2.4.7}</t>
-  </si>
-  <si>
-    <t>{.2.5}</t>
-  </si>
-  <si>
-    <t>{.2.5.1}</t>
-  </si>
-  <si>
-    <t>{.2.5.2}</t>
-  </si>
-  <si>
-    <t>{.2.5.3}</t>
-  </si>
-  <si>
-    <t>{.2.5.4}</t>
-  </si>
-  <si>
-    <t>{.2.6}</t>
-  </si>
-  <si>
-    <t>{.2.6.1}</t>
-  </si>
-  <si>
-    <t>{.2.6.2}</t>
-  </si>
-  <si>
-    <t>{.2.6.3 }</t>
-  </si>
-  <si>
-    <t>{.2.6.4}</t>
-  </si>
-  <si>
-    <t>{.2.6.5}</t>
-  </si>
-  <si>
-    <t>{.2.6.6}</t>
-  </si>
-  <si>
-    <t>{.2.6.7}</t>
-  </si>
-  <si>
-    <t>{.2.6.8}</t>
-  </si>
-  <si>
-    <t>{.2.7}</t>
-  </si>
-  <si>
-    <t>{.2.7.1}</t>
-  </si>
-  <si>
-    <t>{.2.7.2}</t>
-  </si>
-  <si>
-    <t>{.2.8}</t>
-  </si>
-  <si>
-    <t>{.2.8.1}</t>
-  </si>
-  <si>
-    <t>{.2.8.2}</t>
-  </si>
-  <si>
-    <t>{.2.8.3}</t>
-  </si>
-  <si>
-    <t>{.2.8.4}</t>
-  </si>
-  <si>
-    <t>{.2.9}</t>
   </si>
   <si>
     <t>{.communityName}</t>
@@ -389,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,13 +330,25 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -417,13 +357,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -468,8 +401,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -763,7 +696,7 @@
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -831,313 +764,228 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="44" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="5"/>
-    </row>
-    <row r="2" spans="1:67" s="2" customFormat="1" ht="44" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/build_export.xlsx
+++ b/build_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13194\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4400577-2CC4-6941-A8BE-ABF2C0D648F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5CDB02-5076-43BF-B251-35448FE7F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="24940" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>社区名</t>
   </si>
@@ -166,150 +166,195 @@
     <t>2.10.4 未安装家庭健康紧急呼叫系统，无法保障有需要的居家老年人、残疾人安装一键紧急呼叫、安全监护无感化监测等智能产品</t>
   </si>
   <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.county}</t>
+  </si>
+  <si>
+    <t>{.street}</t>
+  </si>
+  <si>
+    <t>{.2.1}</t>
+  </si>
+  <si>
+    <t>{.2.1.1}</t>
+  </si>
+  <si>
+    <t>{.2.1.2}</t>
+  </si>
+  <si>
+    <t>{.2.1.3}</t>
+  </si>
+  <si>
+    <t>{.2.1.4}</t>
+  </si>
+  <si>
+    <t>{.2.2}</t>
+  </si>
+  <si>
+    <t>{.2.3}</t>
+  </si>
+  <si>
+    <t>{.2.3.1}</t>
+  </si>
+  <si>
+    <t>{.2.3.2}</t>
+  </si>
+  <si>
+    <t>{.2.3.3}</t>
+  </si>
+  <si>
+    <t>{.2.3.4}</t>
+  </si>
+  <si>
+    <t>{.2.3.5}</t>
+  </si>
+  <si>
+    <t>{.2.3.6 }</t>
+  </si>
+  <si>
+    <t>{.2.3.7}</t>
+  </si>
+  <si>
+    <t>{.2.4}</t>
+  </si>
+  <si>
+    <t>{.2.4.1}</t>
+  </si>
+  <si>
+    <t>{.2.4.2}</t>
+  </si>
+  <si>
+    <t>{.2.4.3}</t>
+  </si>
+  <si>
+    <t>{.2.4.4 }</t>
+  </si>
+  <si>
+    <t>{.2.4.5}</t>
+  </si>
+  <si>
+    <t>{.2.5}</t>
+  </si>
+  <si>
+    <t>{.2.5.1}</t>
+  </si>
+  <si>
+    <t>{.2.5.2}</t>
+  </si>
+  <si>
+    <t>{.2.6}</t>
+  </si>
+  <si>
+    <t>{.2.6.1}</t>
+  </si>
+  <si>
+    <t>{.2.6.2}</t>
+  </si>
+  <si>
+    <t>{.2.6.3 }</t>
+  </si>
+  <si>
+    <t>{.2.7}</t>
+  </si>
+  <si>
+    <t>{.2.7.1}</t>
+  </si>
+  <si>
+    <t>{.2.7.2}</t>
+  </si>
+  <si>
+    <t>{.2.8}</t>
+  </si>
+  <si>
+    <t>{.2.8.1}</t>
+  </si>
+  <si>
+    <t>{.2.8.2}</t>
+  </si>
+  <si>
+    <t>{.2.8.3}</t>
+  </si>
+  <si>
+    <t>{.2.8.4}</t>
+  </si>
+  <si>
+    <t>{.2.9}</t>
+  </si>
+  <si>
+    <t>{.2.10}</t>
+  </si>
+  <si>
+    <t>{.2.10.1}</t>
+  </si>
+  <si>
+    <t>{.2.10.2}</t>
+  </si>
+  <si>
+    <t>{.2.10.3}</t>
+  </si>
+  <si>
+    <t>{.2.10.4}</t>
+  </si>
+  <si>
+    <t>{.communityName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.courtName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.buildNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅楼号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间（年）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑层数（层）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常住人口（人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十岁以上常住人口（人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{.province}</t>
-  </si>
-  <si>
-    <t>{.city}</t>
-  </si>
-  <si>
-    <t>{.county}</t>
-  </si>
-  <si>
-    <t>{.street}</t>
-  </si>
-  <si>
-    <t>{.2.1}</t>
-  </si>
-  <si>
-    <t>{.2.1.1}</t>
-  </si>
-  <si>
-    <t>{.2.1.2}</t>
-  </si>
-  <si>
-    <t>{.2.1.3}</t>
-  </si>
-  <si>
-    <t>{.2.1.4}</t>
-  </si>
-  <si>
-    <t>{.2.2}</t>
-  </si>
-  <si>
-    <t>{.2.3}</t>
-  </si>
-  <si>
-    <t>{.2.3.1}</t>
-  </si>
-  <si>
-    <t>{.2.3.2}</t>
-  </si>
-  <si>
-    <t>{.2.3.3}</t>
-  </si>
-  <si>
-    <t>{.2.3.4}</t>
-  </si>
-  <si>
-    <t>{.2.3.5}</t>
-  </si>
-  <si>
-    <t>{.2.3.6 }</t>
-  </si>
-  <si>
-    <t>{.2.3.7}</t>
-  </si>
-  <si>
-    <t>{.2.4}</t>
-  </si>
-  <si>
-    <t>{.2.4.1}</t>
-  </si>
-  <si>
-    <t>{.2.4.2}</t>
-  </si>
-  <si>
-    <t>{.2.4.3}</t>
-  </si>
-  <si>
-    <t>{.2.4.4 }</t>
-  </si>
-  <si>
-    <t>{.2.4.5}</t>
-  </si>
-  <si>
-    <t>{.2.5}</t>
-  </si>
-  <si>
-    <t>{.2.5.1}</t>
-  </si>
-  <si>
-    <t>{.2.5.2}</t>
-  </si>
-  <si>
-    <t>{.2.6}</t>
-  </si>
-  <si>
-    <t>{.2.6.1}</t>
-  </si>
-  <si>
-    <t>{.2.6.2}</t>
-  </si>
-  <si>
-    <t>{.2.6.3 }</t>
-  </si>
-  <si>
-    <t>{.2.7}</t>
-  </si>
-  <si>
-    <t>{.2.7.1}</t>
-  </si>
-  <si>
-    <t>{.2.7.2}</t>
-  </si>
-  <si>
-    <t>{.2.8}</t>
-  </si>
-  <si>
-    <t>{.2.8.1}</t>
-  </si>
-  <si>
-    <t>{.2.8.2}</t>
-  </si>
-  <si>
-    <t>{.2.8.3}</t>
-  </si>
-  <si>
-    <t>{.2.8.4}</t>
-  </si>
-  <si>
-    <t>{.2.9}</t>
-  </si>
-  <si>
-    <t>{.2.10}</t>
-  </si>
-  <si>
-    <t>{.2.10.1}</t>
-  </si>
-  <si>
-    <t>{.2.10.2}</t>
-  </si>
-  <si>
-    <t>{.2.10.3}</t>
-  </si>
-  <si>
-    <t>{.2.10.4}</t>
-  </si>
-  <si>
-    <t>{.communityName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.courtName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.buildNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.buildTime}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.unitsNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.numberDepartment}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.numberPeople}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.numberOver60People}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,6 +375,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,6 +383,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,6 +391,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -679,24 +727,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.4609375" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" customWidth="1"/>
+    <col min="3" max="3" width="26.4609375" customWidth="1"/>
+    <col min="4" max="12" width="18.15234375" customWidth="1"/>
+    <col min="13" max="13" width="32.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,274 +764,310 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="2" customFormat="1" ht="44" customHeight="1">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/build_export.xlsx
+++ b/build_export.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13194\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5CDB02-5076-43BF-B251-35448FE7F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+  <si>
+    <t>审核状态</t>
+  </si>
   <si>
     <t>社区名</t>
   </si>
@@ -43,6 +40,24 @@
     <t>街道</t>
   </si>
   <si>
+    <t>住宅楼号</t>
+  </si>
+  <si>
+    <t>单元数量</t>
+  </si>
+  <si>
+    <t>建造时间（年）</t>
+  </si>
+  <si>
+    <t>建筑层数（层）</t>
+  </si>
+  <si>
+    <t>常住人口（人）</t>
+  </si>
+  <si>
+    <t>六十岁以上常住人口（人）</t>
+  </si>
+  <si>
     <t>2.1 存在外墙安全隐患的住宅数量</t>
   </si>
   <si>
@@ -166,6 +181,21 @@
     <t>2.10.4 未安装家庭健康紧急呼叫系统，无法保障有需要的居家老年人、残疾人安装一键紧急呼叫、安全监护无感化监测等智能产品</t>
   </si>
   <si>
+    <t>{.state}</t>
+  </si>
+  <si>
+    <t>{.communityName}</t>
+  </si>
+  <si>
+    <t>{.courtName}</t>
+  </si>
+  <si>
+    <t>{.buildNumber}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
     <t>{.city}</t>
   </si>
   <si>
@@ -175,6 +205,21 @@
     <t>{.street}</t>
   </si>
   <si>
+    <t>{.unitsNumber}</t>
+  </si>
+  <si>
+    <t>{.buildTime}</t>
+  </si>
+  <si>
+    <t>{.numberDepartment}</t>
+  </si>
+  <si>
+    <t>{.numberPeople}</t>
+  </si>
+  <si>
+    <t>{.numberOver60People}</t>
+  </si>
+  <si>
     <t>{.2.1}</t>
   </si>
   <si>
@@ -211,7 +256,7 @@
     <t>{.2.3.5}</t>
   </si>
   <si>
-    <t>{.2.3.6 }</t>
+    <t>{.2.3.6}</t>
   </si>
   <si>
     <t>{.2.3.7}</t>
@@ -229,7 +274,7 @@
     <t>{.2.4.3}</t>
   </si>
   <si>
-    <t>{.2.4.4 }</t>
+    <t>{.2.4.4}</t>
   </si>
   <si>
     <t>{.2.4.5}</t>
@@ -253,7 +298,7 @@
     <t>{.2.6.2}</t>
   </si>
   <si>
-    <t>{.2.6.3 }</t>
+    <t>{.2.6.3}</t>
   </si>
   <si>
     <t>{.2.7}</t>
@@ -296,73 +341,19 @@
   </si>
   <si>
     <t>{.2.10.4}</t>
-  </si>
-  <si>
-    <t>{.communityName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.courtName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.buildNumber}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅楼号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造时间（年）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑层数（层）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>常住人口（人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六十岁以上常住人口（人）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.province}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.buildTime}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.unitsNumber}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.numberDepartment}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.numberPeople}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.numberOver60People}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,7 +366,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -383,7 +373,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -391,35 +380,356 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -427,13 +737,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,21 +1001,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -721,29 +1314,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="27.4609375" customWidth="1"/>
-    <col min="2" max="2" width="15.84375" customWidth="1"/>
-    <col min="3" max="3" width="26.4609375" customWidth="1"/>
-    <col min="4" max="12" width="18.15234375" customWidth="1"/>
-    <col min="13" max="13" width="32.23046875" customWidth="1"/>
+    <col min="2" max="2" width="27.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="15.8461538461538" customWidth="1"/>
+    <col min="4" max="4" width="26.4615384615385" customWidth="1"/>
+    <col min="5" max="13" width="18.1538461538462" customWidth="1"/>
+    <col min="14" max="14" width="32.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:55">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -765,313 +1358,319 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:55">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AR2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AS2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AU2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="AV2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="AY2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="BA2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="BB2" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/build_export.xlsx
+++ b/build_export.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>审核状态</t>
   </si>
@@ -341,6 +342,24 @@
   </si>
   <si>
     <t>{.2.10.4}</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>{.indicatorName}</t>
+  </si>
+  <si>
+    <t>{.photoPath}</t>
+  </si>
+  <si>
+    <t>{.description}</t>
   </si>
 </sst>
 </file>
@@ -1322,17 +1341,17 @@
   <sheetPr/>
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="27.4615384615385" customWidth="1"/>
-    <col min="3" max="3" width="15.8461538461538" customWidth="1"/>
-    <col min="4" max="4" width="26.4615384615385" customWidth="1"/>
-    <col min="5" max="13" width="18.1538461538462" customWidth="1"/>
-    <col min="14" max="14" width="32.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.8307692307692" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="13" width="18.1615384615385" customWidth="1"/>
+    <col min="14" max="14" width="32.1615384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:55">
@@ -1668,6 +1687,115 @@
       <c r="BC2" s="2" t="s">
         <v>108</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="5" max="5" width="19.9230769230769" customWidth="1"/>
+    <col min="6" max="6" width="18.8461538461538" customWidth="1"/>
+    <col min="7" max="7" width="15.6923076923077" customWidth="1"/>
+    <col min="8" max="8" width="21.4615384615385" customWidth="1"/>
+    <col min="9" max="9" width="15.8307692307692" customWidth="1"/>
+    <col min="10" max="10" width="22.3076923076923" customWidth="1"/>
+    <col min="11" max="18" width="18.1615384615385" customWidth="1"/>
+    <col min="19" max="19" width="32.1615384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:19">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:19">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/build_export.xlsx
+++ b/build_export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
   <si>
     <t>审核状态</t>
   </si>
@@ -59,6 +59,9 @@
     <t>六十岁以上常住人口（人）</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
     <t>2.1 存在外墙安全隐患的住宅数量</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t>{.numberOver60People}</t>
+  </si>
+  <si>
+    <t>{.location}</t>
   </si>
   <si>
     <t>{.2.1}</t>
@@ -1339,22 +1345,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.8307692307692" customWidth="1"/>
+    <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="13" width="18.1615384615385" customWidth="1"/>
-    <col min="14" max="14" width="32.1615384615385" customWidth="1"/>
+    <col min="5" max="13" width="18.1583333333333" customWidth="1"/>
+    <col min="14" max="14" width="32.1583333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.525" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:55">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,172 +1527,178 @@
       <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:55">
+    <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:56">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1699,20 +1712,20 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="5" width="19.9230769230769" customWidth="1"/>
-    <col min="6" max="6" width="18.8461538461538" customWidth="1"/>
-    <col min="7" max="7" width="15.6923076923077" customWidth="1"/>
-    <col min="8" max="8" width="21.4615384615385" customWidth="1"/>
-    <col min="9" max="9" width="15.8307692307692" customWidth="1"/>
-    <col min="10" max="10" width="22.3076923076923" customWidth="1"/>
-    <col min="11" max="18" width="18.1615384615385" customWidth="1"/>
-    <col min="19" max="19" width="32.1615384615385" customWidth="1"/>
+    <col min="5" max="5" width="19.925" customWidth="1"/>
+    <col min="6" max="6" width="18.85" customWidth="1"/>
+    <col min="7" max="7" width="15.6916666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.4583333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.8333333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.3083333333333" customWidth="1"/>
+    <col min="11" max="18" width="18.1583333333333" customWidth="1"/>
+    <col min="19" max="19" width="32.1583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:19">
@@ -1738,13 +1751,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1758,34 +1771,34 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
